--- a/biology/Zoologie/Buergeria_japonica/Buergeria_japonica.xlsx
+++ b/biology/Zoologie/Buergeria_japonica/Buergeria_japonica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Buergeria japonica est une espèce d'amphibiens de la famille des Rhacophoridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Buergeria japonica est une espèce d'amphibiens de la famille des Rhacophoridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre sur l'île de Taïwan et dans les îles Ryūkyū au Japon. Elle est présente du niveau de la mer jusqu'à 1 800 m d'altitude mais est plus commune aux basses altitudes[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre sur l'île de Taïwan et dans les îles Ryūkyū au Japon. Elle est présente du niveau de la mer jusqu'à 1 800 m d'altitude mais est plus commune aux basses altitudes.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Buergeria japonica mesure de 25 à 30 mm pour les mâles et de 27 à 37 mm pour les femelles. Son dos varie entre le gris, le brun, le jaune, etc., avec une capacité à changer de couleur. Il s'agit d'une espèce terrestre aux mœurs essentiellement nocturnes.
 </t>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en référence au lieu de sa découverte, le Japon.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hallowell, 1861 "1860" : Report upon the Reptilia of the North Pacific Exploring Expedition, under command of Capt. John Rogers, U. S. N. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 12, p. 480-510 (texte intégral).</t>
         </is>
